--- a/Quiz3/Graficas.xlsx
+++ b/Quiz3/Graficas.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mario\OneDrive\Escritorio\untitled\Quiz3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mario\OneDrive\Escritorio\2024\I Semestre\Datos I\Quiz3\Quiz3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A11117F-DFA8-4F52-8B0F-317584889E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15C7DF68-927D-48C3-B6D5-4EF6998753E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{26A8A8C6-4854-494B-A7AC-9F5E847469ED}"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Grafica" sheetId="1" r:id="rId1"/>
+    <sheet name="Pruebas" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,12 +37,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>BSTree</t>
   </si>
   <si>
     <t>LinkedList</t>
+  </si>
+  <si>
+    <t>Prueba</t>
   </si>
 </sst>
 </file>
@@ -173,7 +177,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
@@ -187,6 +191,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -299,7 +306,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Hoja1!$B$3</c:f>
+              <c:f>Grafica!$B$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -405,33 +412,33 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>Hoja1!$B$4:$B$11</c:f>
+              <c:f>Grafica!$B$4:$B$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>13900</c:v>
+                  <c:v>9000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10600</c:v>
+                  <c:v>9700</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>24700</c:v>
+                  <c:v>10000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>11400</c:v>
+                  <c:v>8900</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>12200</c:v>
+                  <c:v>9600</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>15000</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>12000</c:v>
+                  <c:v>9800</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>11400</c:v>
+                  <c:v>8700</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -447,7 +454,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Hoja1!$C$3</c:f>
+              <c:f>Grafica!$C$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -553,33 +560,33 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>Hoja1!$C$4:$C$11</c:f>
+              <c:f>Grafica!$C$4:$C$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>29900</c:v>
+                  <c:v>25900</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>86200</c:v>
+                  <c:v>31000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>26000</c:v>
+                  <c:v>29300</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>24300</c:v>
+                  <c:v>19200</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>25200</c:v>
+                  <c:v>46700</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>47000</c:v>
+                  <c:v>46800</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>24500</c:v>
+                  <c:v>30900</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>27900</c:v>
+                  <c:v>22100</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1367,6 +1374,363 @@
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>38101</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>76201</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Imagen 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1E5A489F-58F1-8A80-E987-B9C1FD8BF2FA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="228601"/>
+          <a:ext cx="4629150" cy="2895600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>133351</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Imagen 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1AAEF753-8284-92F6-B8A3-D4C258C62C52}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5334001" y="190500"/>
+          <a:ext cx="3943350" cy="2933700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Imagen 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{235EF86C-6CD3-FA03-ECD6-A76187F5AC49}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9906000" y="190500"/>
+          <a:ext cx="3886200" cy="2924175"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Imagen 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9E584803-6A84-D592-576E-B42A2DF10F8E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14478000" y="190500"/>
+          <a:ext cx="4333875" cy="2933700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="Imagen 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2E1C1753-2786-504C-1414-D9195D7B919E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19812000" y="190500"/>
+          <a:ext cx="3152775" cy="2943225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="Imagen 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{344042B3-F55D-035E-EAF5-327C60EAC59A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="23622000" y="190500"/>
+          <a:ext cx="3305175" cy="2962275"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>742950</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="Imagen 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3AC9A775-2244-68C1-89B1-0F398AA91EA7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="27412950" y="180975"/>
+          <a:ext cx="3419475" cy="2943225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>19051</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="Imagen 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{116AEA58-F500-9D53-AE9D-679431238741}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="31242000" y="190501"/>
+          <a:ext cx="4391025" cy="3067050"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -1689,10 +2053,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A1AC843-9695-4119-85C2-F59539A8EB1F}">
-  <dimension ref="B2:C11"/>
+  <dimension ref="A2:C11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1701,8 +2065,11 @@
     <col min="3" max="3" width="18.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="2:3" ht="24" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:3" ht="24" x14ac:dyDescent="0.4">
+      <c r="A3" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
@@ -1710,68 +2077,134 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="7">
+        <v>1</v>
+      </c>
       <c r="B4" s="3">
-        <v>13900</v>
+        <v>9000</v>
       </c>
       <c r="C4" s="4">
-        <v>29900</v>
+        <v>25900</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="7">
+        <v>2</v>
+      </c>
       <c r="B5" s="3">
-        <v>10600</v>
+        <v>9700</v>
       </c>
       <c r="C5" s="4">
-        <v>86200</v>
+        <v>31000</v>
       </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="7">
+        <v>3</v>
+      </c>
       <c r="B6" s="3">
-        <v>24700</v>
+        <v>10000</v>
       </c>
       <c r="C6" s="4">
-        <v>26000</v>
+        <v>29300</v>
       </c>
     </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="7">
+        <v>4</v>
+      </c>
       <c r="B7" s="3">
-        <v>11400</v>
+        <v>8900</v>
       </c>
       <c r="C7" s="4">
-        <v>24300</v>
+        <v>19200</v>
       </c>
     </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="7">
+        <v>5</v>
+      </c>
       <c r="B8" s="3">
-        <v>12200</v>
+        <v>9600</v>
       </c>
       <c r="C8" s="4">
-        <v>25200</v>
+        <v>46700</v>
       </c>
     </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="7">
+        <v>6</v>
+      </c>
       <c r="B9" s="3">
         <v>15000</v>
       </c>
       <c r="C9" s="4">
-        <v>47000</v>
+        <v>46800</v>
       </c>
     </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="7">
+        <v>7</v>
+      </c>
       <c r="B10" s="3">
-        <v>12000</v>
+        <v>9800</v>
       </c>
       <c r="C10" s="4">
-        <v>24500</v>
+        <v>30900</v>
       </c>
     </row>
-    <row r="11" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="7">
+        <v>8</v>
+      </c>
       <c r="B11" s="5">
-        <v>11400</v>
+        <v>8700</v>
       </c>
       <c r="C11" s="6">
-        <v>27900</v>
+        <v>22100</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93585457-3B02-42B6-84FD-F0BE4A8575A2}">
+  <dimension ref="A1:AP1"/>
+  <sheetViews>
+    <sheetView topLeftCell="AI11" workbookViewId="0">
+      <selection activeCell="AP2" sqref="AP2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>1</v>
+      </c>
+      <c r="H1">
+        <v>2</v>
+      </c>
+      <c r="N1">
+        <v>3</v>
+      </c>
+      <c r="T1">
+        <v>4</v>
+      </c>
+      <c r="AA1">
+        <v>5</v>
+      </c>
+      <c r="AF1">
+        <v>6</v>
+      </c>
+      <c r="AK1">
+        <v>7</v>
+      </c>
+      <c r="AP1">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
